--- a/doc/BabyGirl完善计划.xlsx
+++ b/doc/BabyGirl完善计划.xlsx
@@ -1,43 +1,566 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="项目整合技术点来源" sheetId="1" r:id="rId1"/>
+    <sheet name="自学视频来源" sheetId="2" r:id="rId2"/>
+    <sheet name="提升后知识点" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+  <si>
+    <t>项目遍历进行情况</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>指标</t>
+  </si>
+  <si>
+    <t>进行度</t>
+  </si>
+  <si>
+    <t>uin</t>
+  </si>
+  <si>
+    <t>网页收藏夹遍历</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>快礼物</t>
+  </si>
+  <si>
+    <t>慧验车</t>
+  </si>
+  <si>
+    <t>快礼物商城</t>
+  </si>
+  <si>
+    <t>快礼物供应后台</t>
+  </si>
+  <si>
+    <t>知识点分级：
+MAX（新建项目，耗时较长，多个方面了解）
+MID（耗时20-30 分钟，一到三个页面或文件，但可继续升级）
+MIN（耗时20-30 分钟，一到三个页面或文件）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">完成优先级分级：
+A  MIN知识点（在列表时完成）
+B  MAX知识点（可对MID知识点完成有帮助）
+C  MID知识点 （在B 完成后）
+D  MAX知识点
+</t>
+  </si>
+  <si>
+    <t>关键技术点描述</t>
+  </si>
+  <si>
+    <t>细节技术点</t>
+  </si>
+  <si>
+    <t>技术前提关键点（准备工作），具体描述</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git相关</t>
+  </si>
+  <si>
+    <t>git 客户端工具使用（vs/TortoiseGit）</t>
+  </si>
+  <si>
+    <t>git 服务端工具部署（windows ,docker ）</t>
+  </si>
+  <si>
+    <t>docker 使用，gitlab 部署</t>
+  </si>
+  <si>
+    <t>git 命令熟练使用</t>
+  </si>
+  <si>
+    <t>larryms/layui</t>
+  </si>
+  <si>
+    <t>新建.net core 管理后台</t>
+  </si>
+  <si>
+    <t>复制现有管理后台 如system,menu等数据及架构，解决.net core 下面的AOP（可能要中间件）</t>
+  </si>
+  <si>
+    <t>公共相关类</t>
+  </si>
+  <si>
+    <t>对字符串的处理</t>
+  </si>
+  <si>
+    <t>判断字符串是否可转换为数字</t>
+  </si>
+  <si>
+    <t>mvc相关</t>
+  </si>
+  <si>
+    <t>ValidateAntiForgeryToken</t>
+  </si>
+  <si>
+    <t>新建测试项目 framework和core</t>
+  </si>
+  <si>
+    <t>通用JS</t>
+  </si>
+  <si>
+    <t>知识点列表</t>
+  </si>
+  <si>
+    <t>知识点简称</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>链接资源等</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -45,24 +568,451 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -111,7 +1061,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -146,7 +1096,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -320,23 +1270,428 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="21.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="43.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="89.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="34" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:1">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="96" customHeight="1" spans="1:5">
+      <c r="A10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" ht="96" customHeight="1" spans="1:5">
+      <c r="A11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" ht="32" customHeight="1" spans="1:5">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:3">
+      <c r="B14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:4">
+      <c r="B15" s="16"/>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="2:3">
+      <c r="B16" s="16"/>
+      <c r="C16" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:4">
+      <c r="B17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:2">
+      <c r="B18" s="18"/>
+    </row>
+    <row r="19" customHeight="1" spans="2:2">
+      <c r="B19" s="19"/>
+    </row>
+    <row r="20" customHeight="1" spans="2:4">
+      <c r="B20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:2">
+      <c r="B21" s="18"/>
+    </row>
+    <row r="22" customHeight="1" spans="2:2">
+      <c r="B22" s="19"/>
+    </row>
+    <row r="23" customHeight="1" spans="2:4">
+      <c r="B23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:2">
+      <c r="B24" s="18"/>
+    </row>
+    <row r="25" customHeight="1" spans="2:2">
+      <c r="B25" s="19"/>
+    </row>
+    <row r="26" customHeight="1" spans="2:2">
+      <c r="B26" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:2">
+      <c r="B27" s="18"/>
+    </row>
+    <row r="28" customHeight="1" spans="2:2">
+      <c r="B28" s="19"/>
+    </row>
+    <row r="29" customHeight="1" spans="2:2">
+      <c r="B29" s="20"/>
+    </row>
+    <row r="30" customHeight="1" spans="2:2">
+      <c r="B30" s="21"/>
+    </row>
+    <row r="31" customHeight="1" spans="2:2">
+      <c r="B31" s="22"/>
+    </row>
+    <row r="32" customHeight="1" spans="2:2">
+      <c r="B32" s="20"/>
+    </row>
+    <row r="33" customHeight="1" spans="2:2">
+      <c r="B33" s="21"/>
+    </row>
+    <row r="34" customHeight="1" spans="2:2">
+      <c r="B34" s="22"/>
+    </row>
+    <row r="35" customHeight="1" spans="2:2">
+      <c r="B35" s="20"/>
+    </row>
+    <row r="36" customHeight="1" spans="2:2">
+      <c r="B36" s="21"/>
+    </row>
+    <row r="37" customHeight="1" spans="2:2">
+      <c r="B37" s="22"/>
+    </row>
+    <row r="38" customHeight="1" spans="2:2">
+      <c r="B38" s="20"/>
+    </row>
+    <row r="39" customHeight="1" spans="2:2">
+      <c r="B39" s="21"/>
+    </row>
+    <row r="40" customHeight="1" spans="2:2">
+      <c r="B40" s="22"/>
+    </row>
+    <row r="41" customHeight="1" spans="2:2">
+      <c r="B41" s="20"/>
+    </row>
+    <row r="42" customHeight="1" spans="2:2">
+      <c r="B42" s="21"/>
+    </row>
+    <row r="43" customHeight="1" spans="2:2">
+      <c r="B43" s="22"/>
+    </row>
+    <row r="44" customHeight="1" spans="2:2">
+      <c r="B44" s="17"/>
+    </row>
+    <row r="45" customHeight="1" spans="2:2">
+      <c r="B45" s="18"/>
+    </row>
+    <row r="46" customHeight="1" spans="2:2">
+      <c r="B46" s="19"/>
+    </row>
+    <row r="47" customHeight="1" spans="2:2">
+      <c r="B47" s="17"/>
+    </row>
+    <row r="48" customHeight="1" spans="2:2">
+      <c r="B48" s="18"/>
+    </row>
+    <row r="49" customHeight="1" spans="2:2">
+      <c r="B49" s="19"/>
+    </row>
+    <row r="50" customHeight="1" spans="2:2">
+      <c r="B50" s="17"/>
+    </row>
+    <row r="51" customHeight="1" spans="2:2">
+      <c r="B51" s="18"/>
+    </row>
+    <row r="52" customHeight="1" spans="2:2">
+      <c r="B52" s="19"/>
+    </row>
+    <row r="53" customHeight="1" spans="2:2">
+      <c r="B53" s="17"/>
+    </row>
+    <row r="54" customHeight="1" spans="2:2">
+      <c r="B54" s="18"/>
+    </row>
+    <row r="55" customHeight="1" spans="2:2">
+      <c r="B55" s="19"/>
+    </row>
+    <row r="56" customHeight="1" spans="2:2">
+      <c r="B56" s="17"/>
+    </row>
+    <row r="57" customHeight="1" spans="2:2">
+      <c r="B57" s="18"/>
+    </row>
+    <row r="58" customHeight="1" spans="2:2">
+      <c r="B58" s="19"/>
+    </row>
+    <row r="59" customHeight="1" spans="2:2">
+      <c r="B59" s="20"/>
+    </row>
+    <row r="60" customHeight="1" spans="2:2">
+      <c r="B60" s="21"/>
+    </row>
+    <row r="61" customHeight="1" spans="2:2">
+      <c r="B61" s="22"/>
+    </row>
+    <row r="62" customHeight="1" spans="2:2">
+      <c r="B62" s="20"/>
+    </row>
+    <row r="63" customHeight="1" spans="2:2">
+      <c r="B63" s="21"/>
+    </row>
+    <row r="64" customHeight="1" spans="2:2">
+      <c r="B64" s="22"/>
+    </row>
+    <row r="65" customHeight="1" spans="2:2">
+      <c r="B65" s="20"/>
+    </row>
+    <row r="66" customHeight="1" spans="2:2">
+      <c r="B66" s="21"/>
+    </row>
+    <row r="67" customHeight="1" spans="2:2">
+      <c r="B67" s="22"/>
+    </row>
+    <row r="68" customHeight="1" spans="2:2">
+      <c r="B68" s="20"/>
+    </row>
+    <row r="69" customHeight="1" spans="2:2">
+      <c r="B69" s="21"/>
+    </row>
+    <row r="70" customHeight="1" spans="2:2">
+      <c r="B70" s="22"/>
+    </row>
+    <row r="71" customHeight="1" spans="2:2">
+      <c r="B71" s="20"/>
+    </row>
+    <row r="72" customHeight="1" spans="2:2">
+      <c r="B72" s="21"/>
+    </row>
+    <row r="73" customHeight="1" spans="2:2">
+      <c r="B73" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="33.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61" style="1" customWidth="1"/>
+    <col min="3" max="3" width="78.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.25" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/BabyGirl完善计划.xlsx
+++ b/doc/BabyGirl完善计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20190" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="项目整合技术点来源" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>项目遍历进行情况</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>进行中</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>未进行</t>
   </si>
   <si>
     <t>快礼物</t>
@@ -144,7 +150,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,28 +198,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,9 +235,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,17 +294,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,23 +326,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,37 +340,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -375,31 +374,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,151 +554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,41 +653,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,7 +676,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,164 +719,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -925,7 +920,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1276,357 +1270,421 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D30" sqref="D27 D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="25.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="43.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="89.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="34" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="21.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="43.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="89.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="6" t="s">
+    <row r="4" customHeight="1" spans="2:3">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="6" t="s">
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:1">
-      <c r="A7" s="6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:3">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" ht="96" customHeight="1" spans="1:5">
-      <c r="A10" s="12" t="s">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:3">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:3">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" ht="96" customHeight="1" spans="1:5">
-      <c r="A11" s="12" t="s">
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:3">
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" ht="32" customHeight="1" spans="1:5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15" t="s">
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="2:3">
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="96" customHeight="1" spans="1:5">
+      <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" ht="96" customHeight="1" spans="1:5">
+      <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" ht="32" customHeight="1" spans="1:5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="C17" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:3">
-      <c r="B14" s="16" t="s">
+      <c r="D17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="E17" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="2:4">
-      <c r="B15" s="16"/>
-      <c r="C15" s="6" t="s">
+    <row r="18" customHeight="1" spans="2:3">
+      <c r="B18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="2:3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="6" t="s">
+    <row r="19" customHeight="1" spans="2:4">
+      <c r="B19" s="13"/>
+      <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="2:4">
-      <c r="B17" s="17" t="s">
+      <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="6" t="s">
+    </row>
+    <row r="20" customHeight="1" spans="2:3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="6" t="s">
+    </row>
+    <row r="21" customHeight="1" spans="2:4">
+      <c r="B21" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:2">
-      <c r="B18" s="18"/>
-    </row>
-    <row r="19" customHeight="1" spans="2:2">
-      <c r="B19" s="19"/>
-    </row>
-    <row r="20" customHeight="1" spans="2:4">
-      <c r="B20" s="17" t="s">
+      <c r="C21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="6" t="s">
+    </row>
+    <row r="22" customHeight="1" spans="2:2">
+      <c r="B22" s="15"/>
+    </row>
+    <row r="23" customHeight="1" spans="2:2">
+      <c r="B23" s="16"/>
+    </row>
+    <row r="24" customHeight="1" spans="2:4">
+      <c r="B24" s="14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="2:2">
-      <c r="B21" s="18"/>
-    </row>
-    <row r="22" customHeight="1" spans="2:2">
-      <c r="B22" s="19"/>
-    </row>
-    <row r="23" customHeight="1" spans="2:4">
-      <c r="B23" s="17" t="s">
+      <c r="C24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="6" t="s">
+    </row>
+    <row r="25" customHeight="1" spans="2:2">
+      <c r="B25" s="15"/>
+    </row>
+    <row r="26" customHeight="1" spans="2:2">
+      <c r="B26" s="16"/>
+    </row>
+    <row r="27" customHeight="1" spans="2:4">
+      <c r="B27" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" customHeight="1" spans="2:2">
-      <c r="B24" s="18"/>
-    </row>
-    <row r="25" customHeight="1" spans="2:2">
-      <c r="B25" s="19"/>
-    </row>
-    <row r="26" customHeight="1" spans="2:2">
-      <c r="B26" s="17" t="s">
+      <c r="C27" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" customHeight="1" spans="2:2">
-      <c r="B27" s="18"/>
+      <c r="D27" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" customHeight="1" spans="2:2">
-      <c r="B28" s="19"/>
+      <c r="B28" s="15"/>
     </row>
     <row r="29" customHeight="1" spans="2:2">
-      <c r="B29" s="20"/>
+      <c r="B29" s="16"/>
     </row>
     <row r="30" customHeight="1" spans="2:2">
-      <c r="B30" s="21"/>
+      <c r="B30" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" customHeight="1" spans="2:2">
-      <c r="B31" s="22"/>
+      <c r="B31" s="15"/>
     </row>
     <row r="32" customHeight="1" spans="2:2">
-      <c r="B32" s="20"/>
+      <c r="B32" s="16"/>
     </row>
     <row r="33" customHeight="1" spans="2:2">
-      <c r="B33" s="21"/>
+      <c r="B33" s="17"/>
     </row>
     <row r="34" customHeight="1" spans="2:2">
-      <c r="B34" s="22"/>
+      <c r="B34" s="18"/>
     </row>
     <row r="35" customHeight="1" spans="2:2">
-      <c r="B35" s="20"/>
+      <c r="B35" s="19"/>
     </row>
     <row r="36" customHeight="1" spans="2:2">
-      <c r="B36" s="21"/>
+      <c r="B36" s="17"/>
     </row>
     <row r="37" customHeight="1" spans="2:2">
-      <c r="B37" s="22"/>
+      <c r="B37" s="18"/>
     </row>
     <row r="38" customHeight="1" spans="2:2">
-      <c r="B38" s="20"/>
+      <c r="B38" s="19"/>
     </row>
     <row r="39" customHeight="1" spans="2:2">
-      <c r="B39" s="21"/>
+      <c r="B39" s="17"/>
     </row>
     <row r="40" customHeight="1" spans="2:2">
-      <c r="B40" s="22"/>
+      <c r="B40" s="18"/>
     </row>
     <row r="41" customHeight="1" spans="2:2">
-      <c r="B41" s="20"/>
+      <c r="B41" s="19"/>
     </row>
     <row r="42" customHeight="1" spans="2:2">
-      <c r="B42" s="21"/>
+      <c r="B42" s="17"/>
     </row>
     <row r="43" customHeight="1" spans="2:2">
-      <c r="B43" s="22"/>
+      <c r="B43" s="18"/>
     </row>
     <row r="44" customHeight="1" spans="2:2">
-      <c r="B44" s="17"/>
+      <c r="B44" s="19"/>
     </row>
     <row r="45" customHeight="1" spans="2:2">
-      <c r="B45" s="18"/>
+      <c r="B45" s="17"/>
     </row>
     <row r="46" customHeight="1" spans="2:2">
-      <c r="B46" s="19"/>
+      <c r="B46" s="18"/>
     </row>
     <row r="47" customHeight="1" spans="2:2">
-      <c r="B47" s="17"/>
+      <c r="B47" s="19"/>
     </row>
     <row r="48" customHeight="1" spans="2:2">
-      <c r="B48" s="18"/>
+      <c r="B48" s="14"/>
     </row>
     <row r="49" customHeight="1" spans="2:2">
-      <c r="B49" s="19"/>
+      <c r="B49" s="15"/>
     </row>
     <row r="50" customHeight="1" spans="2:2">
-      <c r="B50" s="17"/>
+      <c r="B50" s="16"/>
     </row>
     <row r="51" customHeight="1" spans="2:2">
-      <c r="B51" s="18"/>
+      <c r="B51" s="14"/>
     </row>
     <row r="52" customHeight="1" spans="2:2">
-      <c r="B52" s="19"/>
+      <c r="B52" s="15"/>
     </row>
     <row r="53" customHeight="1" spans="2:2">
-      <c r="B53" s="17"/>
+      <c r="B53" s="16"/>
     </row>
     <row r="54" customHeight="1" spans="2:2">
-      <c r="B54" s="18"/>
+      <c r="B54" s="14"/>
     </row>
     <row r="55" customHeight="1" spans="2:2">
-      <c r="B55" s="19"/>
+      <c r="B55" s="15"/>
     </row>
     <row r="56" customHeight="1" spans="2:2">
-      <c r="B56" s="17"/>
+      <c r="B56" s="16"/>
     </row>
     <row r="57" customHeight="1" spans="2:2">
-      <c r="B57" s="18"/>
+      <c r="B57" s="14"/>
     </row>
     <row r="58" customHeight="1" spans="2:2">
-      <c r="B58" s="19"/>
+      <c r="B58" s="15"/>
     </row>
     <row r="59" customHeight="1" spans="2:2">
-      <c r="B59" s="20"/>
+      <c r="B59" s="16"/>
     </row>
     <row r="60" customHeight="1" spans="2:2">
-      <c r="B60" s="21"/>
+      <c r="B60" s="14"/>
     </row>
     <row r="61" customHeight="1" spans="2:2">
-      <c r="B61" s="22"/>
+      <c r="B61" s="15"/>
     </row>
     <row r="62" customHeight="1" spans="2:2">
-      <c r="B62" s="20"/>
+      <c r="B62" s="16"/>
     </row>
     <row r="63" customHeight="1" spans="2:2">
-      <c r="B63" s="21"/>
+      <c r="B63" s="17"/>
     </row>
     <row r="64" customHeight="1" spans="2:2">
-      <c r="B64" s="22"/>
+      <c r="B64" s="18"/>
     </row>
     <row r="65" customHeight="1" spans="2:2">
-      <c r="B65" s="20"/>
+      <c r="B65" s="19"/>
     </row>
     <row r="66" customHeight="1" spans="2:2">
-      <c r="B66" s="21"/>
+      <c r="B66" s="17"/>
     </row>
     <row r="67" customHeight="1" spans="2:2">
-      <c r="B67" s="22"/>
+      <c r="B67" s="18"/>
     </row>
     <row r="68" customHeight="1" spans="2:2">
-      <c r="B68" s="20"/>
+      <c r="B68" s="19"/>
     </row>
     <row r="69" customHeight="1" spans="2:2">
-      <c r="B69" s="21"/>
+      <c r="B69" s="17"/>
     </row>
     <row r="70" customHeight="1" spans="2:2">
-      <c r="B70" s="22"/>
+      <c r="B70" s="18"/>
     </row>
     <row r="71" customHeight="1" spans="2:2">
-      <c r="B71" s="20"/>
+      <c r="B71" s="19"/>
     </row>
     <row r="72" customHeight="1" spans="2:2">
-      <c r="B72" s="21"/>
+      <c r="B72" s="17"/>
     </row>
     <row r="73" customHeight="1" spans="2:2">
-      <c r="B73" s="22"/>
+      <c r="B73" s="18"/>
+    </row>
+    <row r="74" customHeight="1" spans="2:2">
+      <c r="B74" s="19"/>
+    </row>
+    <row r="75" customHeight="1" spans="2:2">
+      <c r="B75" s="17"/>
+    </row>
+    <row r="76" customHeight="1" spans="2:2">
+      <c r="B76" s="18"/>
+    </row>
+    <row r="77" customHeight="1" spans="2:2">
+      <c r="B77" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1669,23 +1727,23 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/BabyGirl完善计划.xlsx
+++ b/doc/BabyGirl完善计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20190" windowHeight="12195"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="项目整合技术点来源" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>项目遍历进行情况</t>
   </si>
@@ -57,20 +57,55 @@
     <t>快礼物供应后台</t>
   </si>
   <si>
-    <t>知识点分级：
-MAX（新建项目，耗时较长，多个方面了解）
-MID（耗时20-30 分钟，一到三个页面或文件，但可继续升级）
-MIN（耗时20-30 分钟，一到三个页面或文件）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">完成优先级分级：
-A  MIN知识点（在列表时完成）
-B  MAX知识点（可对MID知识点完成有帮助）
-C  MID知识点 （在B 完成后）
-D  MAX知识点
+    <t xml:space="preserve">知识点分级：
 </t>
   </si>
   <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>（新建项目，耗时较长，多个方面了解）</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>（耗时20-30 分钟，一到三个页面或文件，但可继续升级）</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>耗时20-30 分钟，一到三个页面或文件）</t>
+  </si>
+  <si>
+    <t>完成优先级分级：</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>MIN知识点（在列表时完成）</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>MAX知识点（可对MID知识点完成有帮助）</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>MID知识点 （在B 完成后）</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>MAX知识点</t>
+  </si>
+  <si>
     <t>关键技术点描述</t>
   </si>
   <si>
@@ -80,6 +115,12 @@
     <t>技术前提关键点（准备工作），具体描述</t>
   </si>
   <si>
+    <t>知识点等级</t>
+  </si>
+  <si>
+    <t>完成优先级</t>
+  </si>
+  <si>
     <t>结果</t>
   </si>
   <si>
@@ -126,6 +167,12 @@
   </si>
   <si>
     <t>通用JS</t>
+  </si>
+  <si>
+    <t>json2.js</t>
+  </si>
+  <si>
+    <t>提供了json的序列化和反序列化方法，可以将一个json对象转换成json字符串，也可以将一个json字符串转换成一个json对象</t>
   </si>
   <si>
     <t>知识点列表</t>
@@ -559,7 +606,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -586,8 +633,23 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -596,9 +658,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -607,11 +688,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -620,7 +716,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -629,29 +725,78 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -763,7 +908,7 @@
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,7 +938,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -811,28 +956,28 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -841,10 +986,10 @@
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -902,53 +1047,116 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1270,403 +1478,521 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D30" sqref="D27 D30"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="43.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="89.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="21.625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="43.875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="89.375" style="12" customWidth="1"/>
+    <col min="5" max="6" width="16.75" style="12" customWidth="1"/>
+    <col min="7" max="7" width="34" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="4" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="2:3">
-      <c r="B4" s="4" t="s">
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:3">
-      <c r="B6" s="4" t="s">
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="18"/>
+      <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="2:3">
-      <c r="B8" s="4" t="s">
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="4" t="s">
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:3">
-      <c r="B10" s="4" t="s">
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="18"/>
+      <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="4" t="s">
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:3">
-      <c r="B12" s="4" t="s">
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" s="6" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A12" s="21"/>
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" ht="96" customHeight="1" spans="1:5">
-      <c r="A14" s="9" t="s">
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" s="7" customFormat="1" customHeight="1"/>
+    <row r="14" s="8" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" ht="96" customHeight="1" spans="1:5">
-      <c r="A15" s="9" t="s">
+      <c r="B14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" ht="32" customHeight="1" spans="1:5">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" s="9" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" s="10" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:3">
-      <c r="B18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" s="11" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" s="8" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A18" s="24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="2:4">
-      <c r="B19" s="13"/>
-      <c r="C19" s="4" t="s">
+      <c r="B18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="C18" s="31" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="2:3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="4" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" s="9" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" customHeight="1" spans="2:4">
-      <c r="B21" s="14" t="s">
+      <c r="C19" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" s="9" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="C20" s="32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" customHeight="1" spans="2:2">
-      <c r="B22" s="15"/>
-    </row>
-    <row r="23" customHeight="1" spans="2:2">
-      <c r="B23" s="16"/>
-    </row>
-    <row r="24" customHeight="1" spans="2:4">
-      <c r="B24" s="14" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" s="10" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C21" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" s="7" customFormat="1" ht="32" customHeight="1" spans="1:7">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" s="12" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" customHeight="1" spans="2:2">
-      <c r="B25" s="15"/>
-    </row>
-    <row r="26" customHeight="1" spans="2:2">
-      <c r="B26" s="16"/>
+      <c r="C23" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:3">
+      <c r="B24" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:4">
+      <c r="B25" s="37"/>
+      <c r="C25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:3">
+      <c r="B26" s="37"/>
+      <c r="C26" s="12" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
-      <c r="B27" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>32</v>
+      <c r="B27" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:2">
-      <c r="B28" s="15"/>
+      <c r="B28" s="37"/>
     </row>
     <row r="29" customHeight="1" spans="2:2">
-      <c r="B29" s="16"/>
-    </row>
-    <row r="30" customHeight="1" spans="2:2">
-      <c r="B30" s="14" t="s">
-        <v>33</v>
+      <c r="B29" s="37"/>
+    </row>
+    <row r="30" customHeight="1" spans="2:4">
+      <c r="B30" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:2">
-      <c r="B31" s="15"/>
+      <c r="B31" s="37"/>
     </row>
     <row r="32" customHeight="1" spans="2:2">
-      <c r="B32" s="16"/>
-    </row>
-    <row r="33" customHeight="1" spans="2:2">
-      <c r="B33" s="17"/>
+      <c r="B32" s="37"/>
+    </row>
+    <row r="33" customHeight="1" spans="2:4">
+      <c r="B33" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="34" customHeight="1" spans="2:2">
-      <c r="B34" s="18"/>
+      <c r="B34" s="37"/>
     </row>
     <row r="35" customHeight="1" spans="2:2">
-      <c r="B35" s="19"/>
-    </row>
-    <row r="36" customHeight="1" spans="2:2">
-      <c r="B36" s="17"/>
+      <c r="B35" s="37"/>
+    </row>
+    <row r="36" customHeight="1" spans="2:4">
+      <c r="B36" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="37" customHeight="1" spans="2:2">
-      <c r="B37" s="18"/>
+      <c r="B37" s="37"/>
     </row>
     <row r="38" customHeight="1" spans="2:2">
-      <c r="B38" s="19"/>
+      <c r="B38" s="37"/>
     </row>
     <row r="39" customHeight="1" spans="2:2">
-      <c r="B39" s="17"/>
+      <c r="B39" s="38"/>
     </row>
     <row r="40" customHeight="1" spans="2:2">
-      <c r="B40" s="18"/>
+      <c r="B40" s="38"/>
     </row>
     <row r="41" customHeight="1" spans="2:2">
-      <c r="B41" s="19"/>
+      <c r="B41" s="38"/>
     </row>
     <row r="42" customHeight="1" spans="2:2">
-      <c r="B42" s="17"/>
+      <c r="B42" s="38"/>
     </row>
     <row r="43" customHeight="1" spans="2:2">
-      <c r="B43" s="18"/>
+      <c r="B43" s="38"/>
     </row>
     <row r="44" customHeight="1" spans="2:2">
-      <c r="B44" s="19"/>
+      <c r="B44" s="38"/>
     </row>
     <row r="45" customHeight="1" spans="2:2">
-      <c r="B45" s="17"/>
+      <c r="B45" s="38"/>
     </row>
     <row r="46" customHeight="1" spans="2:2">
-      <c r="B46" s="18"/>
+      <c r="B46" s="38"/>
     </row>
     <row r="47" customHeight="1" spans="2:2">
-      <c r="B47" s="19"/>
+      <c r="B47" s="38"/>
     </row>
     <row r="48" customHeight="1" spans="2:2">
-      <c r="B48" s="14"/>
+      <c r="B48" s="38"/>
     </row>
     <row r="49" customHeight="1" spans="2:2">
-      <c r="B49" s="15"/>
+      <c r="B49" s="38"/>
     </row>
     <row r="50" customHeight="1" spans="2:2">
-      <c r="B50" s="16"/>
+      <c r="B50" s="38"/>
     </row>
     <row r="51" customHeight="1" spans="2:2">
-      <c r="B51" s="14"/>
+      <c r="B51" s="38"/>
     </row>
     <row r="52" customHeight="1" spans="2:2">
-      <c r="B52" s="15"/>
+      <c r="B52" s="38"/>
     </row>
     <row r="53" customHeight="1" spans="2:2">
-      <c r="B53" s="16"/>
+      <c r="B53" s="38"/>
     </row>
     <row r="54" customHeight="1" spans="2:2">
-      <c r="B54" s="14"/>
+      <c r="B54" s="37"/>
     </row>
     <row r="55" customHeight="1" spans="2:2">
-      <c r="B55" s="15"/>
+      <c r="B55" s="37"/>
     </row>
     <row r="56" customHeight="1" spans="2:2">
-      <c r="B56" s="16"/>
+      <c r="B56" s="37"/>
     </row>
     <row r="57" customHeight="1" spans="2:2">
-      <c r="B57" s="14"/>
+      <c r="B57" s="37"/>
     </row>
     <row r="58" customHeight="1" spans="2:2">
-      <c r="B58" s="15"/>
+      <c r="B58" s="37"/>
     </row>
     <row r="59" customHeight="1" spans="2:2">
-      <c r="B59" s="16"/>
+      <c r="B59" s="37"/>
     </row>
     <row r="60" customHeight="1" spans="2:2">
-      <c r="B60" s="14"/>
+      <c r="B60" s="37"/>
     </row>
     <row r="61" customHeight="1" spans="2:2">
-      <c r="B61" s="15"/>
+      <c r="B61" s="37"/>
     </row>
     <row r="62" customHeight="1" spans="2:2">
-      <c r="B62" s="16"/>
+      <c r="B62" s="37"/>
     </row>
     <row r="63" customHeight="1" spans="2:2">
-      <c r="B63" s="17"/>
+      <c r="B63" s="37"/>
     </row>
     <row r="64" customHeight="1" spans="2:2">
-      <c r="B64" s="18"/>
+      <c r="B64" s="37"/>
     </row>
     <row r="65" customHeight="1" spans="2:2">
-      <c r="B65" s="19"/>
+      <c r="B65" s="37"/>
     </row>
     <row r="66" customHeight="1" spans="2:2">
-      <c r="B66" s="17"/>
+      <c r="B66" s="37"/>
     </row>
     <row r="67" customHeight="1" spans="2:2">
-      <c r="B67" s="18"/>
+      <c r="B67" s="37"/>
     </row>
     <row r="68" customHeight="1" spans="2:2">
-      <c r="B68" s="19"/>
+      <c r="B68" s="37"/>
     </row>
     <row r="69" customHeight="1" spans="2:2">
-      <c r="B69" s="17"/>
+      <c r="B69" s="38"/>
     </row>
     <row r="70" customHeight="1" spans="2:2">
-      <c r="B70" s="18"/>
+      <c r="B70" s="38"/>
     </row>
     <row r="71" customHeight="1" spans="2:2">
-      <c r="B71" s="19"/>
+      <c r="B71" s="38"/>
     </row>
     <row r="72" customHeight="1" spans="2:2">
-      <c r="B72" s="17"/>
+      <c r="B72" s="38"/>
     </row>
     <row r="73" customHeight="1" spans="2:2">
-      <c r="B73" s="18"/>
+      <c r="B73" s="38"/>
     </row>
     <row r="74" customHeight="1" spans="2:2">
-      <c r="B74" s="19"/>
+      <c r="B74" s="38"/>
     </row>
     <row r="75" customHeight="1" spans="2:2">
-      <c r="B75" s="17"/>
+      <c r="B75" s="38"/>
     </row>
     <row r="76" customHeight="1" spans="2:2">
-      <c r="B76" s="18"/>
+      <c r="B76" s="38"/>
     </row>
     <row r="77" customHeight="1" spans="2:2">
-      <c r="B77" s="19"/>
+      <c r="B77" s="38"/>
+    </row>
+    <row r="78" customHeight="1" spans="2:2">
+      <c r="B78" s="38"/>
+    </row>
+    <row r="79" customHeight="1" spans="2:2">
+      <c r="B79" s="38"/>
+    </row>
+    <row r="80" customHeight="1" spans="2:2">
+      <c r="B80" s="38"/>
+    </row>
+    <row r="81" customHeight="1" spans="2:2">
+      <c r="B81" s="38"/>
+    </row>
+    <row r="82" customHeight="1" spans="2:2">
+      <c r="B82" s="38"/>
+    </row>
+    <row r="83" customHeight="1" spans="2:2">
+      <c r="B83" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
@@ -1685,6 +2011,8 @@
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B72:B74"/>
     <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1727,7 +2055,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1735,13 +2063,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3"/>
     </row>

--- a/doc/BabyGirl完善计划.xlsx
+++ b/doc/BabyGirl完善计划.xlsx
@@ -1047,7 +1047,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1055,64 +1055,76 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1148,16 +1160,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1480,8 +1495,8 @@
   <sheetPr/>
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="6"/>
@@ -1490,280 +1505,287 @@
     <col min="2" max="2" width="25.375" style="12" customWidth="1"/>
     <col min="3" max="3" width="43.875" style="12" customWidth="1"/>
     <col min="4" max="4" width="89.375" style="12" customWidth="1"/>
-    <col min="5" max="6" width="16.75" style="12" customWidth="1"/>
+    <col min="5" max="6" width="16.75" style="13" customWidth="1"/>
     <col min="7" max="7" width="34" style="12" customWidth="1"/>
     <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="18"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="18"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="18"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" s="6" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A12" s="21"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A12" s="23"/>
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="23"/>
-    </row>
-    <row r="13" s="7" customFormat="1" customHeight="1"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" s="7" customFormat="1" customHeight="1" spans="5:6">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+    </row>
     <row r="14" s="8" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="29" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" s="9" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="12"/>
     </row>
     <row r="16" s="10" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" s="11" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" s="8" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" s="9" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="12"/>
     </row>
     <row r="20" s="9" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="36" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="12"/>
     </row>
     <row r="21" s="10" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="37" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" s="7" customFormat="1" ht="32" customHeight="1" spans="1:7">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" s="12" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:3">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="42" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -1771,7 +1793,7 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
-      <c r="B25" s="37"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="12" t="s">
         <v>37</v>
       </c>
@@ -1780,13 +1802,13 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:3">
-      <c r="B26" s="37"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="42" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="12" t="s">
@@ -1797,13 +1819,13 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:2">
-      <c r="B28" s="37"/>
+      <c r="B28" s="42"/>
     </row>
     <row r="29" customHeight="1" spans="2:2">
-      <c r="B29" s="37"/>
+      <c r="B29" s="42"/>
     </row>
     <row r="30" customHeight="1" spans="2:4">
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="42" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -1814,13 +1836,13 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:2">
-      <c r="B31" s="37"/>
+      <c r="B31" s="42"/>
     </row>
     <row r="32" customHeight="1" spans="2:2">
-      <c r="B32" s="37"/>
+      <c r="B32" s="42"/>
     </row>
     <row r="33" customHeight="1" spans="2:4">
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="42" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="12" t="s">
@@ -1831,13 +1853,13 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:2">
-      <c r="B34" s="37"/>
+      <c r="B34" s="42"/>
     </row>
     <row r="35" customHeight="1" spans="2:2">
-      <c r="B35" s="37"/>
-    </row>
-    <row r="36" customHeight="1" spans="2:4">
-      <c r="B36" s="37" t="s">
+      <c r="B35" s="42"/>
+    </row>
+    <row r="36" customHeight="1" spans="2:6">
+      <c r="B36" s="42" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -1846,147 +1868,153 @@
       <c r="D36" s="12" t="s">
         <v>51</v>
       </c>
+      <c r="E36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="37" customHeight="1" spans="2:2">
-      <c r="B37" s="37"/>
+      <c r="B37" s="42"/>
     </row>
     <row r="38" customHeight="1" spans="2:2">
-      <c r="B38" s="37"/>
+      <c r="B38" s="42"/>
     </row>
     <row r="39" customHeight="1" spans="2:2">
-      <c r="B39" s="38"/>
+      <c r="B39" s="43"/>
     </row>
     <row r="40" customHeight="1" spans="2:2">
-      <c r="B40" s="38"/>
+      <c r="B40" s="43"/>
     </row>
     <row r="41" customHeight="1" spans="2:2">
-      <c r="B41" s="38"/>
+      <c r="B41" s="43"/>
     </row>
     <row r="42" customHeight="1" spans="2:2">
-      <c r="B42" s="38"/>
+      <c r="B42" s="43"/>
     </row>
     <row r="43" customHeight="1" spans="2:2">
-      <c r="B43" s="38"/>
+      <c r="B43" s="43"/>
     </row>
     <row r="44" customHeight="1" spans="2:2">
-      <c r="B44" s="38"/>
+      <c r="B44" s="43"/>
     </row>
     <row r="45" customHeight="1" spans="2:2">
-      <c r="B45" s="38"/>
+      <c r="B45" s="43"/>
     </row>
     <row r="46" customHeight="1" spans="2:2">
-      <c r="B46" s="38"/>
+      <c r="B46" s="43"/>
     </row>
     <row r="47" customHeight="1" spans="2:2">
-      <c r="B47" s="38"/>
+      <c r="B47" s="43"/>
     </row>
     <row r="48" customHeight="1" spans="2:2">
-      <c r="B48" s="38"/>
+      <c r="B48" s="43"/>
     </row>
     <row r="49" customHeight="1" spans="2:2">
-      <c r="B49" s="38"/>
+      <c r="B49" s="43"/>
     </row>
     <row r="50" customHeight="1" spans="2:2">
-      <c r="B50" s="38"/>
+      <c r="B50" s="43"/>
     </row>
     <row r="51" customHeight="1" spans="2:2">
-      <c r="B51" s="38"/>
+      <c r="B51" s="43"/>
     </row>
     <row r="52" customHeight="1" spans="2:2">
-      <c r="B52" s="38"/>
+      <c r="B52" s="43"/>
     </row>
     <row r="53" customHeight="1" spans="2:2">
-      <c r="B53" s="38"/>
+      <c r="B53" s="43"/>
     </row>
     <row r="54" customHeight="1" spans="2:2">
-      <c r="B54" s="37"/>
+      <c r="B54" s="42"/>
     </row>
     <row r="55" customHeight="1" spans="2:2">
-      <c r="B55" s="37"/>
+      <c r="B55" s="42"/>
     </row>
     <row r="56" customHeight="1" spans="2:2">
-      <c r="B56" s="37"/>
+      <c r="B56" s="42"/>
     </row>
     <row r="57" customHeight="1" spans="2:2">
-      <c r="B57" s="37"/>
+      <c r="B57" s="42"/>
     </row>
     <row r="58" customHeight="1" spans="2:2">
-      <c r="B58" s="37"/>
+      <c r="B58" s="42"/>
     </row>
     <row r="59" customHeight="1" spans="2:2">
-      <c r="B59" s="37"/>
+      <c r="B59" s="42"/>
     </row>
     <row r="60" customHeight="1" spans="2:2">
-      <c r="B60" s="37"/>
+      <c r="B60" s="42"/>
     </row>
     <row r="61" customHeight="1" spans="2:2">
-      <c r="B61" s="37"/>
+      <c r="B61" s="42"/>
     </row>
     <row r="62" customHeight="1" spans="2:2">
-      <c r="B62" s="37"/>
+      <c r="B62" s="42"/>
     </row>
     <row r="63" customHeight="1" spans="2:2">
-      <c r="B63" s="37"/>
+      <c r="B63" s="42"/>
     </row>
     <row r="64" customHeight="1" spans="2:2">
-      <c r="B64" s="37"/>
+      <c r="B64" s="42"/>
     </row>
     <row r="65" customHeight="1" spans="2:2">
-      <c r="B65" s="37"/>
+      <c r="B65" s="42"/>
     </row>
     <row r="66" customHeight="1" spans="2:2">
-      <c r="B66" s="37"/>
+      <c r="B66" s="42"/>
     </row>
     <row r="67" customHeight="1" spans="2:2">
-      <c r="B67" s="37"/>
+      <c r="B67" s="42"/>
     </row>
     <row r="68" customHeight="1" spans="2:2">
-      <c r="B68" s="37"/>
+      <c r="B68" s="42"/>
     </row>
     <row r="69" customHeight="1" spans="2:2">
-      <c r="B69" s="38"/>
+      <c r="B69" s="43"/>
     </row>
     <row r="70" customHeight="1" spans="2:2">
-      <c r="B70" s="38"/>
+      <c r="B70" s="43"/>
     </row>
     <row r="71" customHeight="1" spans="2:2">
-      <c r="B71" s="38"/>
+      <c r="B71" s="43"/>
     </row>
     <row r="72" customHeight="1" spans="2:2">
-      <c r="B72" s="38"/>
+      <c r="B72" s="43"/>
     </row>
     <row r="73" customHeight="1" spans="2:2">
-      <c r="B73" s="38"/>
+      <c r="B73" s="43"/>
     </row>
     <row r="74" customHeight="1" spans="2:2">
-      <c r="B74" s="38"/>
+      <c r="B74" s="43"/>
     </row>
     <row r="75" customHeight="1" spans="2:2">
-      <c r="B75" s="38"/>
+      <c r="B75" s="43"/>
     </row>
     <row r="76" customHeight="1" spans="2:2">
-      <c r="B76" s="38"/>
+      <c r="B76" s="43"/>
     </row>
     <row r="77" customHeight="1" spans="2:2">
-      <c r="B77" s="38"/>
+      <c r="B77" s="43"/>
     </row>
     <row r="78" customHeight="1" spans="2:2">
-      <c r="B78" s="38"/>
+      <c r="B78" s="43"/>
     </row>
     <row r="79" customHeight="1" spans="2:2">
-      <c r="B79" s="38"/>
+      <c r="B79" s="43"/>
     </row>
     <row r="80" customHeight="1" spans="2:2">
-      <c r="B80" s="38"/>
+      <c r="B80" s="43"/>
     </row>
     <row r="81" customHeight="1" spans="2:2">
-      <c r="B81" s="38"/>
+      <c r="B81" s="43"/>
     </row>
     <row r="82" customHeight="1" spans="2:2">
-      <c r="B82" s="38"/>
+      <c r="B82" s="43"/>
     </row>
     <row r="83" customHeight="1" spans="2:2">
-      <c r="B83" s="38"/>
+      <c r="B83" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -2014,6 +2042,14 @@
     <mergeCell ref="B78:B80"/>
     <mergeCell ref="B81:B83"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E84 E24:E83">
+      <formula1>$B$14:$B$16</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F24:F84">
+      <formula1>$B$18:$B$21</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/doc/BabyGirl完善计划.xlsx
+++ b/doc/BabyGirl完善计划.xlsx
@@ -193,8 +193,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -244,8 +244,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,23 +267,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,14 +299,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,16 +313,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,6 +351,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,53 +387,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -421,13 +421,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,169 +499,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,6 +798,15 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,15 +826,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -844,8 +844,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,6 +882,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -890,25 +899,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -917,137 +917,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1066,21 +1066,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1129,24 +1117,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1158,9 +1134,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1495,526 +1468,507 @@
   <sheetPr/>
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="25.375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="43.875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="89.375" style="12" customWidth="1"/>
-    <col min="5" max="6" width="16.75" style="13" customWidth="1"/>
-    <col min="7" max="7" width="34" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="21.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="43.875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="89.375" style="8" customWidth="1"/>
+    <col min="5" max="6" width="16.75" style="9" customWidth="1"/>
+    <col min="7" max="7" width="34" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="20"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="20"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="20"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" s="6" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A12" s="23"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" s="7" customFormat="1" customHeight="1" spans="5:6">
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" s="8" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A14" s="28" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" s="9" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" s="8" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A15" s="25"/>
+      <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" s="10" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A16" s="26"/>
+      <c r="B16" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" s="11" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" s="8" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A18" s="28" t="s">
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" s="7" customFormat="1" customHeight="1" spans="5:6">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A18" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" s="9" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31" t="s">
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" s="8" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A19" s="25"/>
+      <c r="B19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" s="9" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" s="8" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A20" s="25"/>
+      <c r="B20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" s="10" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" s="6" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A21" s="26"/>
+      <c r="B21" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="6"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" s="7" customFormat="1" ht="32" customHeight="1" spans="1:7">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="23" s="12" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" s="8" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="31" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:3">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
-      <c r="B25" s="42"/>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:3">
-      <c r="B26" s="42"/>
-      <c r="C26" s="12" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:2">
-      <c r="B28" s="42"/>
+      <c r="B28" s="33"/>
     </row>
     <row r="29" customHeight="1" spans="2:2">
-      <c r="B29" s="42"/>
+      <c r="B29" s="33"/>
     </row>
     <row r="30" customHeight="1" spans="2:4">
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:2">
-      <c r="B31" s="42"/>
+      <c r="B31" s="33"/>
     </row>
     <row r="32" customHeight="1" spans="2:2">
-      <c r="B32" s="42"/>
+      <c r="B32" s="33"/>
     </row>
     <row r="33" customHeight="1" spans="2:4">
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:2">
-      <c r="B34" s="42"/>
+      <c r="B34" s="33"/>
     </row>
     <row r="35" customHeight="1" spans="2:2">
-      <c r="B35" s="42"/>
+      <c r="B35" s="33"/>
     </row>
     <row r="36" customHeight="1" spans="2:6">
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="2:2">
-      <c r="B37" s="42"/>
+      <c r="B37" s="33"/>
     </row>
     <row r="38" customHeight="1" spans="2:2">
-      <c r="B38" s="42"/>
+      <c r="B38" s="33"/>
     </row>
     <row r="39" customHeight="1" spans="2:2">
-      <c r="B39" s="43"/>
+      <c r="B39" s="34"/>
     </row>
     <row r="40" customHeight="1" spans="2:2">
-      <c r="B40" s="43"/>
+      <c r="B40" s="34"/>
     </row>
     <row r="41" customHeight="1" spans="2:2">
-      <c r="B41" s="43"/>
+      <c r="B41" s="34"/>
     </row>
     <row r="42" customHeight="1" spans="2:2">
-      <c r="B42" s="43"/>
+      <c r="B42" s="34"/>
     </row>
     <row r="43" customHeight="1" spans="2:2">
-      <c r="B43" s="43"/>
+      <c r="B43" s="34"/>
     </row>
     <row r="44" customHeight="1" spans="2:2">
-      <c r="B44" s="43"/>
+      <c r="B44" s="34"/>
     </row>
     <row r="45" customHeight="1" spans="2:2">
-      <c r="B45" s="43"/>
+      <c r="B45" s="34"/>
     </row>
     <row r="46" customHeight="1" spans="2:2">
-      <c r="B46" s="43"/>
+      <c r="B46" s="34"/>
     </row>
     <row r="47" customHeight="1" spans="2:2">
-      <c r="B47" s="43"/>
+      <c r="B47" s="34"/>
     </row>
     <row r="48" customHeight="1" spans="2:2">
-      <c r="B48" s="43"/>
+      <c r="B48" s="34"/>
     </row>
     <row r="49" customHeight="1" spans="2:2">
-      <c r="B49" s="43"/>
+      <c r="B49" s="34"/>
     </row>
     <row r="50" customHeight="1" spans="2:2">
-      <c r="B50" s="43"/>
+      <c r="B50" s="34"/>
     </row>
     <row r="51" customHeight="1" spans="2:2">
-      <c r="B51" s="43"/>
+      <c r="B51" s="34"/>
     </row>
     <row r="52" customHeight="1" spans="2:2">
-      <c r="B52" s="43"/>
+      <c r="B52" s="34"/>
     </row>
     <row r="53" customHeight="1" spans="2:2">
-      <c r="B53" s="43"/>
+      <c r="B53" s="34"/>
     </row>
     <row r="54" customHeight="1" spans="2:2">
-      <c r="B54" s="42"/>
+      <c r="B54" s="33"/>
     </row>
     <row r="55" customHeight="1" spans="2:2">
-      <c r="B55" s="42"/>
+      <c r="B55" s="33"/>
     </row>
     <row r="56" customHeight="1" spans="2:2">
-      <c r="B56" s="42"/>
+      <c r="B56" s="33"/>
     </row>
     <row r="57" customHeight="1" spans="2:2">
-      <c r="B57" s="42"/>
+      <c r="B57" s="33"/>
     </row>
     <row r="58" customHeight="1" spans="2:2">
-      <c r="B58" s="42"/>
+      <c r="B58" s="33"/>
     </row>
     <row r="59" customHeight="1" spans="2:2">
-      <c r="B59" s="42"/>
+      <c r="B59" s="33"/>
     </row>
     <row r="60" customHeight="1" spans="2:2">
-      <c r="B60" s="42"/>
+      <c r="B60" s="33"/>
     </row>
     <row r="61" customHeight="1" spans="2:2">
-      <c r="B61" s="42"/>
+      <c r="B61" s="33"/>
     </row>
     <row r="62" customHeight="1" spans="2:2">
-      <c r="B62" s="42"/>
+      <c r="B62" s="33"/>
     </row>
     <row r="63" customHeight="1" spans="2:2">
-      <c r="B63" s="42"/>
+      <c r="B63" s="33"/>
     </row>
     <row r="64" customHeight="1" spans="2:2">
-      <c r="B64" s="42"/>
+      <c r="B64" s="33"/>
     </row>
     <row r="65" customHeight="1" spans="2:2">
-      <c r="B65" s="42"/>
+      <c r="B65" s="33"/>
     </row>
     <row r="66" customHeight="1" spans="2:2">
-      <c r="B66" s="42"/>
+      <c r="B66" s="33"/>
     </row>
     <row r="67" customHeight="1" spans="2:2">
-      <c r="B67" s="42"/>
+      <c r="B67" s="33"/>
     </row>
     <row r="68" customHeight="1" spans="2:2">
-      <c r="B68" s="42"/>
+      <c r="B68" s="33"/>
     </row>
     <row r="69" customHeight="1" spans="2:2">
-      <c r="B69" s="43"/>
+      <c r="B69" s="34"/>
     </row>
     <row r="70" customHeight="1" spans="2:2">
-      <c r="B70" s="43"/>
+      <c r="B70" s="34"/>
     </row>
     <row r="71" customHeight="1" spans="2:2">
-      <c r="B71" s="43"/>
+      <c r="B71" s="34"/>
     </row>
     <row r="72" customHeight="1" spans="2:2">
-      <c r="B72" s="43"/>
+      <c r="B72" s="34"/>
     </row>
     <row r="73" customHeight="1" spans="2:2">
-      <c r="B73" s="43"/>
+      <c r="B73" s="34"/>
     </row>
     <row r="74" customHeight="1" spans="2:2">
-      <c r="B74" s="43"/>
+      <c r="B74" s="34"/>
     </row>
     <row r="75" customHeight="1" spans="2:2">
-      <c r="B75" s="43"/>
+      <c r="B75" s="34"/>
     </row>
     <row r="76" customHeight="1" spans="2:2">
-      <c r="B76" s="43"/>
+      <c r="B76" s="34"/>
     </row>
     <row r="77" customHeight="1" spans="2:2">
-      <c r="B77" s="43"/>
+      <c r="B77" s="34"/>
     </row>
     <row r="78" customHeight="1" spans="2:2">
-      <c r="B78" s="43"/>
+      <c r="B78" s="34"/>
     </row>
     <row r="79" customHeight="1" spans="2:2">
-      <c r="B79" s="43"/>
+      <c r="B79" s="34"/>
     </row>
     <row r="80" customHeight="1" spans="2:2">
-      <c r="B80" s="43"/>
+      <c r="B80" s="34"/>
     </row>
     <row r="81" customHeight="1" spans="2:2">
-      <c r="B81" s="43"/>
+      <c r="B81" s="34"/>
     </row>
     <row r="82" customHeight="1" spans="2:2">
-      <c r="B82" s="43"/>
+      <c r="B82" s="34"/>
     </row>
     <row r="83" customHeight="1" spans="2:2">
-      <c r="B83" s="43"/>
+      <c r="B83" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="23">
